--- a/templates/dataplant/Metabolomics_MassSpec_assay.xlsx
+++ b/templates/dataplant/Metabolomics_MassSpec_assay.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.8</t>
+    <t>1.1.9</t>
   </si>
   <si>
     <t>Description</t>
@@ -176,7 +176,7 @@
     <t>Term Accession Number (DPBO:0000044)</t>
   </si>
   <si>
-    <t>Parameter [MS sample type]</t>
+    <t>Characteristic [MS sample type]</t>
   </si>
   <si>
     <t>Term Source REF (DPBO:0000045)</t>
@@ -230,7 +230,7 @@
     <t>Term Accession Number (DPBO:0000053)</t>
   </si>
   <si>
-    <t>Parameter [chromatography column model]</t>
+    <t>Component [chromatography column model]</t>
   </si>
   <si>
     <t>Term Source REF (DPBO:0000048)</t>
@@ -239,7 +239,7 @@
     <t>Term Accession Number (DPBO:0000048)</t>
   </si>
   <si>
-    <t>Parameter [chromatography guard column model]</t>
+    <t>Component [chromatography guard column model]</t>
   </si>
   <si>
     <t>Term Source REF (DPBO:0000049)</t>
@@ -575,7 +575,7 @@
     <tableColumn id="8" name="Parameter [MS sample resuspension]" totalsRowFunction="none"/>
     <tableColumn id="9" name="Term Source REF (DPBO:0000044)" totalsRowFunction="none"/>
     <tableColumn id="10" name="Term Accession Number (DPBO:0000044)" totalsRowFunction="none"/>
-    <tableColumn id="11" name="Parameter [MS sample type]" totalsRowFunction="none"/>
+    <tableColumn id="11" name="Characteristic [MS sample type]" totalsRowFunction="none"/>
     <tableColumn id="12" name="Term Source REF (DPBO:0000045)" totalsRowFunction="none"/>
     <tableColumn id="13" name="Term Accession Number (DPBO:0000045)" totalsRowFunction="none"/>
     <tableColumn id="14" name="Parameter [MS derivatization]" totalsRowFunction="none"/>
@@ -593,10 +593,10 @@
     <tableColumn id="26" name="Parameter [chromatography column type]" totalsRowFunction="none"/>
     <tableColumn id="27" name="Term Source REF (DPBO:0000053)" totalsRowFunction="none"/>
     <tableColumn id="28" name="Term Accession Number (DPBO:0000053)" totalsRowFunction="none"/>
-    <tableColumn id="29" name="Parameter [chromatography column model]" totalsRowFunction="none"/>
+    <tableColumn id="29" name="Component [chromatography column model]" totalsRowFunction="none"/>
     <tableColumn id="30" name="Term Source REF (DPBO:0000048)" totalsRowFunction="none"/>
     <tableColumn id="31" name="Term Accession Number (DPBO:0000048)" totalsRowFunction="none"/>
-    <tableColumn id="32" name="Parameter [chromatography guard column model]" totalsRowFunction="none"/>
+    <tableColumn id="32" name="Component [chromatography guard column model]" totalsRowFunction="none"/>
     <tableColumn id="33" name="Term Source REF (DPBO:0000049)" totalsRowFunction="none"/>
     <tableColumn id="34" name="Term Accession Number (DPBO:0000049)" totalsRowFunction="none"/>
     <tableColumn id="35" name="Parameter [mobile phase]" totalsRowFunction="none"/>

--- a/templates/dataplant/Metabolomics_MassSpec_assay.xlsx
+++ b/templates/dataplant/Metabolomics_MassSpec_assay.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.9</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Description</t>
@@ -260,10 +260,10 @@
     <t>Parameter [elution]</t>
   </si>
   <si>
-    <t>Term Source REF ()</t>
-  </si>
-  <si>
-    <t>Term Accession Number ()</t>
+    <t>Term Source REF (OBI:0302905)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (OBI:0302905)</t>
   </si>
   <si>
     <t>Parameter [scan polarity]</t>
@@ -603,8 +603,8 @@
     <tableColumn id="36" name="Term Source REF (CHMO:0000995)" totalsRowFunction="none"/>
     <tableColumn id="37" name="Term Accession Number (CHMO:0000995)" totalsRowFunction="none"/>
     <tableColumn id="38" name="Parameter [elution]" totalsRowFunction="none"/>
-    <tableColumn id="39" name="Term Source REF ()" totalsRowFunction="none"/>
-    <tableColumn id="40" name="Term Accession Number ()" totalsRowFunction="none"/>
+    <tableColumn id="39" name="Term Source REF (OBI:0302905)" totalsRowFunction="none"/>
+    <tableColumn id="40" name="Term Accession Number (OBI:0302905)" totalsRowFunction="none"/>
     <tableColumn id="41" name="Parameter [scan polarity]" totalsRowFunction="none"/>
     <tableColumn id="42" name="Term Source REF (MS:1000465)" totalsRowFunction="none"/>
     <tableColumn id="43" name="Term Accession Number (MS:1000465)" totalsRowFunction="none"/>
